--- a/NformTester/NformTester/Keywordscripts/TST1104_ExportActionHistoryForDeviceAlarms.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST1104_ExportActionHistoryForDeviceAlarms.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7907" uniqueCount="883">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3937,9 +3937,6 @@
   </si>
   <si>
     <t>Equal</t>
-  </si>
-  <si>
-    <t>45-66</t>
   </si>
   <si>
     <t>Enabled</t>
@@ -3953,7 +3950,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3961,41 +3958,41 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4003,7 +4000,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4228,10 +4225,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -4296,7 +4293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4582,24 +4579,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>818</v>
       </c>
@@ -4643,7 +4640,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
         <v>820</v>
       </c>
@@ -4729,7 +4726,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4787,7 +4784,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="2" t="s">
         <v>803</v>
       </c>
@@ -4816,9 +4813,7 @@
       <c r="A8" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>882</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -5263,7 +5258,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="3">
@@ -5583,7 +5578,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" ht="15">
       <c r="C36" s="3">
         <v>35</v>
       </c>
@@ -5795,7 +5790,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:15" ht="15">
       <c r="C45" s="3">
         <v>44</v>
       </c>
@@ -6002,7 +5997,7 @@
         <v>7</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>881</v>
@@ -6032,7 +6027,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>881</v>
@@ -6620,7 +6615,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="3:15">
+    <row r="78" spans="3:15" ht="15">
       <c r="C78" s="3">
         <v>77</v>
       </c>
@@ -6712,7 +6707,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="3:14" ht="16.5">
+    <row r="82" spans="3:14" ht="14.25">
       <c r="C82" s="3">
         <v>81</v>
       </c>
@@ -7172,7 +7167,7 @@
       <c r="M108" s="3"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="3:14">
+    <row r="109" spans="3:14" ht="15">
       <c r="C109" s="3"/>
       <c r="D109" s="14"/>
       <c r="E109" s="3"/>
@@ -7424,7 +7419,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="3:14">
+    <row r="127" spans="3:14" ht="15">
       <c r="C127" s="3"/>
       <c r="D127" s="14"/>
       <c r="E127" s="3"/>
@@ -7659,7 +7654,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="4:10">
+    <row r="145" spans="4:10" ht="15">
       <c r="D145" s="14"/>
       <c r="E145" s="5"/>
       <c r="F145" s="3"/>
@@ -7704,7 +7699,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="4:10" ht="16.5">
+    <row r="150" spans="4:10" ht="14.25">
       <c r="D150" s="12"/>
       <c r="E150" s="5"/>
       <c r="F150" s="3"/>
@@ -7740,7 +7735,7 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="4:10" ht="16.5">
+    <row r="154" spans="4:10" ht="14.25">
       <c r="D154" s="12"/>
       <c r="E154" s="5"/>
       <c r="F154" s="3"/>
@@ -7825,7 +7820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:85">
       <c r="A1" t="s">
@@ -11734,7 +11729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1066">
       <c r="A1" t="s">
@@ -30794,10 +30789,10 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/NformTester/NformTester/Keywordscripts/TST1104_ExportActionHistoryForDeviceAlarms.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST1104_ExportActionHistoryForDeviceAlarms.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7907" uniqueCount="883">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3937,9 +3937,6 @@
   </si>
   <si>
     <t>Equal</t>
-  </si>
-  <si>
-    <t>45-66</t>
   </si>
   <si>
     <t>Enabled</t>
@@ -4582,8 +4579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4816,9 +4813,7 @@
       <c r="A8" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>882</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -6002,7 +5997,7 @@
         <v>7</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>881</v>
@@ -6032,7 +6027,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>881</v>
